--- a/pred_ohlcv/54_21/2019-10-28 TRX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-28 TRX ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>827180.0034</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>827180.0034</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>827180.0034</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>827180.0034</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>757216.4171000002</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>525560.4047000002</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>525570.4047000002</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>525414.9643000002</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>1081444.5809</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>1081444.5809</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>1081444.5809</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>1081444.5809</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>2083956.2311</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>2111382.5116</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>2111382.5116</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>2111382.5116</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>2111382.5116</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>4542871.417097989</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>5548020.121697989</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>3884498.62901509</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-408248.99058696</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-408248.99058696</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-408248.99058696</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-408248.99058696</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-408248.99058696</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-459333.16178696</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-459333.16178696</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-459293.16178696</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-543672.86248696</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-543672.86248696</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-446135.33908696</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-446135.33908696</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-446135.33908696</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-446135.33908696</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-446135.33908696</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-446135.33908696</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-446122.00578696</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-455114.29048696</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-455114.29048696</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-455114.29048696</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-455127.62378696</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-455127.62378696</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-48157.74098696001</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-58057.74098696001</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>41986.19411303999</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-441690.22338696</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-441402.53998696</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-441402.53998696</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-441402.53998696</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-834556.5816869601</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-834556.5816869601</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-834556.5816869601</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-834556.5816869601</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-1915343.92148696</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-1623094.20648696</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-1623094.20648696</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-1623094.20648696</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-1588689.73628696</v>
       </c>
       <c r="H154">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-1588689.73628696</v>
       </c>
       <c r="H155">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-1591283.56408696</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-1398896.64456131</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-1386696.64456131</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-290590.08795926</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>23596143.7105076</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>23139941.6350076</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>27247912.19325665</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>28377659.03595665</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>27489314.75479842</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>27851339.46999842</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>29605336.57519121</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>38539036.75404576</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>34585977.35594577</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>36274944.30360238</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>37171043.30164576</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>35051726.63024576</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>35051726.63024576</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>36586230.05334576</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>36586230.05334576</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>36586230.05334576</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>38178768.35444576</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>37024629.46524216</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>37937052.29404216</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>36525939.55124217</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>34970703.84514216</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>35388482.26284216</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>36060563.85104217</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>34783981.03583944</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>34920745.93803944</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>33925404.69307323</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>33620711.30807323</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>32048602.87927323</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>31460395.84487694</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>32400965.34077694</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>32400965.34077694</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>31955780.29925843</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>35283222.42505843</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>35071921.95035844</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>36343710.99735843</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>36343710.99735843</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>35258165.79865843</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>51260482.33194721</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>52775478.24824721</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>54056813.47014721</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>52607345.50669088</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>50448014.24089088</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>51950774.37621831</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>50472852.22966276</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>49217075.56936276</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>48875600.48626276</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>48419729.54331254</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>52580515.20993476</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>53407596.26462311</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>52516632.98632311</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>53341063.70602311</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>51611800.87622311</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>51790673.71802311</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>51615582.61612311</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>50831249.73093164</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>52374061.56283164</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>52374061.56283164</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>52374061.56283164</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>52427099.81813164</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>52427099.81813164</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>52427099.81813164</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>52413849.91813164</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>52413849.91813164</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>51703428.09633164</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>55425629.32193165</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>56579279.23252107</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>55138031.17147828</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>55138031.17147828</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>55374173.45627828</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>49724196.80332959</v>
       </c>
       <c r="H498">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>49724196.80332959</v>
       </c>
       <c r="H499">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>50903556.2546296</v>
       </c>
       <c r="H500">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>48909004.0246296</v>
       </c>
       <c r="H501">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>48909004.0246296</v>
       </c>
       <c r="H502">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>48909004.0246296</v>
       </c>
       <c r="H503">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>48678960.7860296</v>
       </c>
       <c r="H504">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>48648960.7860296</v>
       </c>
       <c r="H505">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>48681048.8262296</v>
       </c>
       <c r="H506">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>48681048.8262296</v>
       </c>
       <c r="H507">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>48681048.8262296</v>
       </c>
       <c r="H508">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>48681048.8262296</v>
       </c>
       <c r="H509">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>48681048.8262296</v>
       </c>
       <c r="H510">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>48681048.8262296</v>
       </c>
       <c r="H511">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>48681048.8262296</v>
       </c>
       <c r="H512">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>51418657.18097349</v>
       </c>
       <c r="H651">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>51418657.18097349</v>
       </c>
       <c r="H652">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>51418657.18097349</v>
       </c>
       <c r="H653">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>51418657.18097349</v>
       </c>
       <c r="H654">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>51418657.18097349</v>
       </c>
       <c r="H655">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>51416045.22634491</v>
       </c>
       <c r="H656">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>51416045.22634491</v>
       </c>
       <c r="H657">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>52088646.68701635</v>
       </c>
       <c r="H658">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>52088646.68701635</v>
       </c>
       <c r="H659">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>52003735.81612746</v>
       </c>
       <c r="H660">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>52384905.06852747</v>
       </c>
       <c r="H661">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>52329996.39592747</v>
       </c>
       <c r="H662">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>52708249.76922747</v>
       </c>
       <c r="H663">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>52706503.47462747</v>
       </c>
       <c r="H664">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>52706503.47462747</v>
       </c>
       <c r="H665">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>52706503.47462747</v>
       </c>
       <c r="H666">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>51891230.66202746</v>
       </c>
       <c r="H667">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>51896916.30202746</v>
       </c>
       <c r="H668">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>51896916.30202746</v>
       </c>
       <c r="H669">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>51867728.25072747</v>
       </c>
       <c r="H670">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>51898726.21372747</v>
       </c>
       <c r="H671">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>51680802.95512747</v>
       </c>
       <c r="H672">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>51680802.95512747</v>
       </c>
       <c r="H673">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>51613589.54892747</v>
       </c>
       <c r="H674">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>51711489.54892747</v>
       </c>
       <c r="H675">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>51711489.54892747</v>
       </c>
       <c r="H676">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>51048270.91102747</v>
       </c>
       <c r="H677">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>51048270.91102747</v>
       </c>
       <c r="H678">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>51091160.35542747</v>
       </c>
       <c r="H679">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>51091160.35542747</v>
       </c>
       <c r="H680">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>51374069.78852747</v>
       </c>
       <c r="H681">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>51374069.78852747</v>
       </c>
       <c r="H682">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>51374069.78852747</v>
       </c>
       <c r="H683">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>51324606.23102747</v>
       </c>
       <c r="H684">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>51324606.23102747</v>
       </c>
       <c r="H685">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18228,7 +18228,7 @@
         <v>51324606.23102747</v>
       </c>
       <c r="H686">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="687" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>51324606.23102747</v>
       </c>
       <c r="H687">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -18280,7 +18280,7 @@
         <v>51338984.57918461</v>
       </c>
       <c r="H688">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="689" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>51097025.60075143</v>
       </c>
       <c r="H689">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>50696985.64765146</v>
       </c>
       <c r="H747">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>50696985.64765146</v>
       </c>
       <c r="H748">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>60013667.93241449</v>
       </c>
       <c r="H749">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>65259564.56711449</v>
       </c>
       <c r="H750">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>63606514.93241449</v>
       </c>
       <c r="H751">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>65325454.94497228</v>
       </c>
       <c r="H752">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>73620848.27911413</v>
       </c>
       <c r="H753">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -20698,7 +20698,7 @@
         <v>78028129.72508912</v>
       </c>
       <c r="H781">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="782" spans="1:8">
@@ -21192,7 +21192,7 @@
         <v>94428179.98272683</v>
       </c>
       <c r="H800">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="801" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>97677607.85409655</v>
       </c>
       <c r="H801">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>97677607.85409655</v>
       </c>
       <c r="H802">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>96210601.90709655</v>
       </c>
       <c r="H803">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>91518425.52595359</v>
       </c>
       <c r="H804">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="805" spans="1:8">
@@ -21322,7 +21322,7 @@
         <v>91518425.52595359</v>
       </c>
       <c r="H805">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="806" spans="1:8">
@@ -21348,7 +21348,7 @@
         <v>89980141.03175358</v>
       </c>
       <c r="H806">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="807" spans="1:8">
@@ -21374,7 +21374,7 @@
         <v>89980141.03175358</v>
       </c>
       <c r="H807">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="808" spans="1:8">
@@ -21400,7 +21400,7 @@
         <v>89980141.03175358</v>
       </c>
       <c r="H808">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="809" spans="1:8">
@@ -21426,7 +21426,7 @@
         <v>89980141.03175358</v>
       </c>
       <c r="H809">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="810" spans="1:8">
@@ -21452,7 +21452,7 @@
         <v>89980141.03175358</v>
       </c>
       <c r="H810">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="811" spans="1:8">
@@ -21478,7 +21478,7 @@
         <v>90417378.51218908</v>
       </c>
       <c r="H811">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="812" spans="1:8">
@@ -21504,7 +21504,7 @@
         <v>89884599.03210476</v>
       </c>
       <c r="H812">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="813" spans="1:8">
@@ -21530,7 +21530,7 @@
         <v>89884599.03210476</v>
       </c>
       <c r="H813">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="814" spans="1:8">
@@ -21556,7 +21556,7 @@
         <v>88732356.73030476</v>
       </c>
       <c r="H814">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="815" spans="1:8">
@@ -21582,7 +21582,7 @@
         <v>85689781.54894525</v>
       </c>
       <c r="H815">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="816" spans="1:8">
@@ -21608,7 +21608,7 @@
         <v>87955214.81824525</v>
       </c>
       <c r="H816">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="817" spans="1:8">
@@ -21634,7 +21634,7 @@
         <v>88736664.00904524</v>
       </c>
       <c r="H817">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="818" spans="1:8">
@@ -21660,7 +21660,7 @@
         <v>88271960.4321432</v>
       </c>
       <c r="H818">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="819" spans="1:8">
@@ -21686,7 +21686,7 @@
         <v>88271960.4321432</v>
       </c>
       <c r="H819">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="820" spans="1:8">
@@ -21712,7 +21712,7 @@
         <v>89852768.11714116</v>
       </c>
       <c r="H820">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="821" spans="1:8">
@@ -21738,7 +21738,7 @@
         <v>89402623.63174115</v>
       </c>
       <c r="H821">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="822" spans="1:8">
@@ -21764,7 +21764,7 @@
         <v>89402623.63174115</v>
       </c>
       <c r="H822">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="823" spans="1:8">
@@ -21790,7 +21790,7 @@
         <v>89661896.90514114</v>
       </c>
       <c r="H823">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="824" spans="1:8">
@@ -21816,7 +21816,7 @@
         <v>89548875.84824115</v>
       </c>
       <c r="H824">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="825" spans="1:8">
@@ -21842,7 +21842,7 @@
         <v>89919441.50954115</v>
       </c>
       <c r="H825">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="826" spans="1:8">
@@ -21868,7 +21868,7 @@
         <v>89660962.66184115</v>
       </c>
       <c r="H826">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="827" spans="1:8">
@@ -21894,7 +21894,7 @@
         <v>87584146.02582164</v>
       </c>
       <c r="H827">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="828" spans="1:8">
@@ -21920,7 +21920,7 @@
         <v>87584146.02582164</v>
       </c>
       <c r="H828">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="829" spans="1:8">
@@ -21946,7 +21946,7 @@
         <v>87927617.35382164</v>
       </c>
       <c r="H829">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="830" spans="1:8">
@@ -21972,7 +21972,7 @@
         <v>87927617.35382164</v>
       </c>
       <c r="H830">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="831" spans="1:8">
@@ -21998,7 +21998,7 @@
         <v>87126446.08562164</v>
       </c>
       <c r="H831">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="832" spans="1:8">
@@ -22024,7 +22024,7 @@
         <v>87126446.08562164</v>
       </c>
       <c r="H832">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="833" spans="1:8">
@@ -22050,7 +22050,7 @@
         <v>87126446.08562164</v>
       </c>
       <c r="H833">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="834" spans="1:8">
@@ -22076,7 +22076,7 @@
         <v>87354900.99093184</v>
       </c>
       <c r="H834">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="835" spans="1:8">
@@ -22102,7 +22102,7 @@
         <v>87354900.99093184</v>
       </c>
       <c r="H835">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="836" spans="1:8">
@@ -22128,7 +22128,7 @@
         <v>87831616.54053184</v>
       </c>
       <c r="H836">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="837" spans="1:8">
@@ -22154,7 +22154,7 @@
         <v>87253223.73733184</v>
       </c>
       <c r="H837">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="838" spans="1:8">
@@ -22180,7 +22180,7 @@
         <v>87253223.73733184</v>
       </c>
       <c r="H838">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="839" spans="1:8">
@@ -22206,7 +22206,7 @@
         <v>87253223.73733184</v>
       </c>
       <c r="H839">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="840" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>85808920.12753184</v>
       </c>
       <c r="H840">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="841" spans="1:8">
@@ -22258,7 +22258,7 @@
         <v>85808920.12753184</v>
       </c>
       <c r="H841">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="842" spans="1:8">
@@ -22284,7 +22284,7 @@
         <v>85614123.52473184</v>
       </c>
       <c r="H842">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="843" spans="1:8">
@@ -23298,7 +23298,7 @@
         <v>85953957.78251694</v>
       </c>
       <c r="H881">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="882" spans="1:8">
@@ -23454,7 +23454,7 @@
         <v>86271204.67549416</v>
       </c>
       <c r="H887">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="888" spans="1:8">
@@ -23480,7 +23480,7 @@
         <v>86271204.67549416</v>
       </c>
       <c r="H888">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="889" spans="1:8">
@@ -23506,7 +23506,7 @@
         <v>86472307.55439417</v>
       </c>
       <c r="H889">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="890" spans="1:8">
@@ -23532,7 +23532,7 @@
         <v>86472307.55439417</v>
       </c>
       <c r="H890">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="891" spans="1:8">
@@ -23558,7 +23558,7 @@
         <v>86472307.55439417</v>
       </c>
       <c r="H891">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="892" spans="1:8">
@@ -23584,7 +23584,7 @@
         <v>86472307.55439417</v>
       </c>
       <c r="H892">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="893" spans="1:8">
@@ -23610,7 +23610,7 @@
         <v>86441536.03119417</v>
       </c>
       <c r="H893">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="894" spans="1:8">
@@ -23636,7 +23636,7 @@
         <v>86441536.03119417</v>
       </c>
       <c r="H894">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="895" spans="1:8">
@@ -23662,7 +23662,7 @@
         <v>85735409.46746631</v>
       </c>
       <c r="H895">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="896" spans="1:8">
@@ -23688,7 +23688,7 @@
         <v>85735409.46746631</v>
       </c>
       <c r="H896">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="897" spans="1:8">
@@ -23714,7 +23714,7 @@
         <v>85902802.23846631</v>
       </c>
       <c r="H897">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="898" spans="1:8">
@@ -23740,7 +23740,7 @@
         <v>85873885.54916631</v>
       </c>
       <c r="H898">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="899" spans="1:8">
@@ -23766,7 +23766,7 @@
         <v>85889830.75116631</v>
       </c>
       <c r="H899">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="900" spans="1:8">
@@ -23792,7 +23792,7 @@
         <v>85622964.15926631</v>
       </c>
       <c r="H900">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="901" spans="1:8">
@@ -23818,7 +23818,7 @@
         <v>85622964.15926631</v>
       </c>
       <c r="H901">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="902" spans="1:8">
@@ -23844,7 +23844,7 @@
         <v>85088489.51236631</v>
       </c>
       <c r="H902">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="903" spans="1:8">
@@ -23870,7 +23870,7 @@
         <v>85088489.51236631</v>
       </c>
       <c r="H903">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="904" spans="1:8">
@@ -23896,7 +23896,7 @@
         <v>85088489.51236631</v>
       </c>
       <c r="H904">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="905" spans="1:8">
@@ -23974,7 +23974,7 @@
         <v>84928741.94746631</v>
       </c>
       <c r="H907">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="908" spans="1:8">
@@ -24000,7 +24000,7 @@
         <v>86816040.01566632</v>
       </c>
       <c r="H908">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="909" spans="1:8">
@@ -24026,7 +24026,7 @@
         <v>86675430.28016633</v>
       </c>
       <c r="H909">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="910" spans="1:8">
@@ -24052,7 +24052,7 @@
         <v>86675430.28016633</v>
       </c>
       <c r="H910">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="911" spans="1:8">
@@ -24104,7 +24104,7 @@
         <v>86759105.28016633</v>
       </c>
       <c r="H912">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="913" spans="1:8">
@@ -24130,7 +24130,7 @@
         <v>86754281.03776632</v>
       </c>
       <c r="H913">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="914" spans="1:8">
@@ -24156,7 +24156,7 @@
         <v>86886970.45916632</v>
       </c>
       <c r="H914">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="915" spans="1:8">
@@ -24182,7 +24182,7 @@
         <v>86886970.45916632</v>
       </c>
       <c r="H915">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="916" spans="1:8">
@@ -24208,7 +24208,7 @@
         <v>86886970.45916632</v>
       </c>
       <c r="H916">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="917" spans="1:8">
@@ -24234,7 +24234,7 @@
         <v>86886970.45916632</v>
       </c>
       <c r="H917">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="918" spans="1:8">
@@ -24260,7 +24260,7 @@
         <v>85624223.36716633</v>
       </c>
       <c r="H918">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="919" spans="1:8">
@@ -24286,7 +24286,7 @@
         <v>85624223.36716633</v>
       </c>
       <c r="H919">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="920" spans="1:8">
@@ -24312,7 +24312,7 @@
         <v>85624223.36716633</v>
       </c>
       <c r="H920">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="921" spans="1:8">
@@ -24364,7 +24364,7 @@
         <v>85387133.36716633</v>
       </c>
       <c r="H922">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="923" spans="1:8">
@@ -27406,7 +27406,7 @@
         <v>86928716.64385352</v>
       </c>
       <c r="H1039">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1040" spans="1:8">
@@ -27432,7 +27432,7 @@
         <v>85922580.71289615</v>
       </c>
       <c r="H1040">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1041" spans="1:8">
@@ -27458,7 +27458,7 @@
         <v>85922580.71289615</v>
       </c>
       <c r="H1041">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1042" spans="1:8">
@@ -27484,7 +27484,7 @@
         <v>85922580.71289615</v>
       </c>
       <c r="H1042">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1043" spans="1:8">
@@ -27510,7 +27510,7 @@
         <v>86472712.0189109</v>
       </c>
       <c r="H1043">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1044" spans="1:8">
@@ -27536,7 +27536,7 @@
         <v>85930494.39872564</v>
       </c>
       <c r="H1044">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1045" spans="1:8">
@@ -27562,7 +27562,7 @@
         <v>85930494.39872564</v>
       </c>
       <c r="H1045">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1046" spans="1:8">
@@ -27588,7 +27588,7 @@
         <v>86418363.10692564</v>
       </c>
       <c r="H1046">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1047" spans="1:8">
@@ -27614,7 +27614,7 @@
         <v>86418363.10692564</v>
       </c>
       <c r="H1047">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1048" spans="1:8">
@@ -27640,7 +27640,7 @@
         <v>86418363.10692564</v>
       </c>
       <c r="H1048">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1049" spans="1:8">
@@ -27666,7 +27666,7 @@
         <v>86418363.10692564</v>
       </c>
       <c r="H1049">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1050" spans="1:8">
@@ -27692,7 +27692,7 @@
         <v>85774840.62562564</v>
       </c>
       <c r="H1050">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1051" spans="1:8">
@@ -27718,7 +27718,7 @@
         <v>85774422.52062564</v>
       </c>
       <c r="H1051">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1052" spans="1:8">
@@ -27744,7 +27744,7 @@
         <v>85068478.33842564</v>
       </c>
       <c r="H1052">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1053" spans="1:8">
@@ -27770,7 +27770,7 @@
         <v>84783579.85862564</v>
       </c>
       <c r="H1053">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1054" spans="1:8">
@@ -28212,7 +28212,7 @@
         <v>85786793.15232563</v>
       </c>
       <c r="H1070">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1071" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-28 TRX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-28 TRX ohlcv.xlsx
@@ -1380,7 +1380,7 @@
         <v>2111382.5116</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>2111382.5116</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>2111382.5116</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-543672.86248696</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-543672.86248696</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-446135.33908696</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-446135.33908696</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-446135.33908696</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-446135.33908696</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-446135.33908696</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-446122.00578696</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-455114.29048696</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-455127.62378696</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-455127.62378696</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-48157.74098696001</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-58057.74098696001</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>41986.19411303999</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-441690.22338696</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-441402.53998696</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-441402.53998696</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-441402.53998696</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-834556.5816869601</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-834556.5816869601</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-834556.5816869601</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-1915343.92148696</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-1623094.20648696</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-1592862.72978696</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-1588373.33198696</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-1591283.56408696</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-1411771.41038696</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-1452526.02568696</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-1452526.02568696</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-1398896.64456131</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-1386696.64456131</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-290590.08795926</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-290590.08795926</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>23596143.7105076</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>23139941.6350076</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>27247912.19325665</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>28377659.03595665</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>27489314.75479842</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>27851339.46999842</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>29605336.57519121</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>38539036.75404576</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>34585977.35594577</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>36274944.30360238</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>37171043.30164576</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>35051726.63024576</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>35051726.63024576</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>36586230.05334576</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>36586230.05334576</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>36586230.05334576</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>38178768.35444576</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>37024629.46524216</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>37937052.29404216</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>36525939.55124217</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>34970703.84514216</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>35388482.26284216</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>36060563.85104217</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>34783981.03583944</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>34920745.93803944</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>33925404.69307323</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>33620711.30807323</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>32048602.87927323</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>31460395.84487694</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>32400965.34077694</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>32400965.34077694</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>31955780.29925843</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>35283222.42505843</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>35071921.95035844</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>36343710.99735843</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>36343710.99735843</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>35258165.79865843</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>51260482.33194721</v>
       </c>
       <c r="H338">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>52775478.24824721</v>
       </c>
       <c r="H339">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>54056813.47014721</v>
       </c>
       <c r="H340">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>52607345.50669088</v>
       </c>
       <c r="H341">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>50448014.24089088</v>
       </c>
       <c r="H342">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>51950774.37621831</v>
       </c>
       <c r="H343">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>50472852.22966276</v>
       </c>
       <c r="H344">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>49217075.56936276</v>
       </c>
       <c r="H345">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>48875600.48626276</v>
       </c>
       <c r="H346">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>48419729.54331254</v>
       </c>
       <c r="H348">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>52580515.20993476</v>
       </c>
       <c r="H357">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>53407596.26462311</v>
       </c>
       <c r="H358">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>52516632.98632311</v>
       </c>
       <c r="H359">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>53341063.70602311</v>
       </c>
       <c r="H360">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>51611800.87622311</v>
       </c>
       <c r="H361">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>51790673.71802311</v>
       </c>
       <c r="H362">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>51615582.61612311</v>
       </c>
       <c r="H363">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>50831249.73093164</v>
       </c>
       <c r="H364">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>52374061.56283164</v>
       </c>
       <c r="H365">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>52374061.56283164</v>
       </c>
       <c r="H366">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>52374061.56283164</v>
       </c>
       <c r="H367">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>52427099.81813164</v>
       </c>
       <c r="H368">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>52427099.81813164</v>
       </c>
       <c r="H369">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>52427099.81813164</v>
       </c>
       <c r="H370">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>52413849.91813164</v>
       </c>
       <c r="H371">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>52413849.91813164</v>
       </c>
       <c r="H372">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>51703428.09633164</v>
       </c>
       <c r="H373">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>55425629.32193165</v>
       </c>
       <c r="H382">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>56579279.23252107</v>
       </c>
       <c r="H383">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>55138031.17147828</v>
       </c>
       <c r="H384">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>55138031.17147828</v>
       </c>
       <c r="H385">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>55374173.45627828</v>
       </c>
       <c r="H397">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>49724196.80332959</v>
       </c>
       <c r="H498">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>49724196.80332959</v>
       </c>
       <c r="H499">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>50903556.2546296</v>
       </c>
       <c r="H500">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>48909004.0246296</v>
       </c>
       <c r="H501">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>48909004.0246296</v>
       </c>
       <c r="H502">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>48909004.0246296</v>
       </c>
       <c r="H503">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>48678960.7860296</v>
       </c>
       <c r="H504">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>48648960.7860296</v>
       </c>
       <c r="H505">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>48681048.8262296</v>
       </c>
       <c r="H506">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>48681048.8262296</v>
       </c>
       <c r="H507">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>48681048.8262296</v>
       </c>
       <c r="H508">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>48681048.8262296</v>
       </c>
       <c r="H509">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>48681048.8262296</v>
       </c>
       <c r="H510">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>48681048.8262296</v>
       </c>
       <c r="H511">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>48681048.8262296</v>
       </c>
       <c r="H512">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>51418657.18097349</v>
       </c>
       <c r="H651">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>51418657.18097349</v>
       </c>
       <c r="H652">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>51418657.18097349</v>
       </c>
       <c r="H653">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>51418657.18097349</v>
       </c>
       <c r="H654">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>51418657.18097349</v>
       </c>
       <c r="H655">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>51416045.22634491</v>
       </c>
       <c r="H656">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>51416045.22634491</v>
       </c>
       <c r="H657">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>52088646.68701635</v>
       </c>
       <c r="H658">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>52088646.68701635</v>
       </c>
       <c r="H659">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>52003735.81612746</v>
       </c>
       <c r="H660">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>52384905.06852747</v>
       </c>
       <c r="H661">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>52329996.39592747</v>
       </c>
       <c r="H662">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>52708249.76922747</v>
       </c>
       <c r="H663">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>52706503.47462747</v>
       </c>
       <c r="H664">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>52706503.47462747</v>
       </c>
       <c r="H665">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>52706503.47462747</v>
       </c>
       <c r="H666">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>51891230.66202746</v>
       </c>
       <c r="H667">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>51896916.30202746</v>
       </c>
       <c r="H668">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>51896916.30202746</v>
       </c>
       <c r="H669">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>51867728.25072747</v>
       </c>
       <c r="H670">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>51898726.21372747</v>
       </c>
       <c r="H671">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>51680802.95512747</v>
       </c>
       <c r="H672">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>51680802.95512747</v>
       </c>
       <c r="H673">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>51613589.54892747</v>
       </c>
       <c r="H674">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>51711489.54892747</v>
       </c>
       <c r="H675">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>51711489.54892747</v>
       </c>
       <c r="H676">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>51048270.91102747</v>
       </c>
       <c r="H677">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>51048270.91102747</v>
       </c>
       <c r="H678">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>51091160.35542747</v>
       </c>
       <c r="H679">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>51091160.35542747</v>
       </c>
       <c r="H680">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>51374069.78852747</v>
       </c>
       <c r="H681">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>51374069.78852747</v>
       </c>
       <c r="H682">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>51374069.78852747</v>
       </c>
       <c r="H683">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>51324606.23102747</v>
       </c>
       <c r="H684">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>51324606.23102747</v>
       </c>
       <c r="H685">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18228,7 +18228,7 @@
         <v>51324606.23102747</v>
       </c>
       <c r="H686">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="687" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>51324606.23102747</v>
       </c>
       <c r="H687">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -18280,7 +18280,7 @@
         <v>51338984.57918461</v>
       </c>
       <c r="H688">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="689" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>51097025.60075143</v>
       </c>
       <c r="H689">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>50696985.64765146</v>
       </c>
       <c r="H747">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>50696985.64765146</v>
       </c>
       <c r="H748">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>60013667.93241449</v>
       </c>
       <c r="H749">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>65259564.56711449</v>
       </c>
       <c r="H750">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>63606514.93241449</v>
       </c>
       <c r="H751">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>65325454.94497228</v>
       </c>
       <c r="H752">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>73620848.27911413</v>
       </c>
       <c r="H753">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -20542,7 +20542,7 @@
         <v>78964160.35018912</v>
       </c>
       <c r="H775">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="776" spans="1:8">
@@ -20594,7 +20594,7 @@
         <v>77287738.20318912</v>
       </c>
       <c r="H777">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="778" spans="1:8">
@@ -20620,7 +20620,7 @@
         <v>78047962.62298912</v>
       </c>
       <c r="H778">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="779" spans="1:8">
@@ -20698,7 +20698,7 @@
         <v>78028129.72508912</v>
       </c>
       <c r="H781">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="782" spans="1:8">
@@ -20776,7 +20776,7 @@
         <v>79709663.63118911</v>
       </c>
       <c r="H784">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>79709663.63118911</v>
       </c>
       <c r="H785">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>85052395.17512192</v>
       </c>
       <c r="H791">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -21036,7 +21036,7 @@
         <v>83295785.33142683</v>
       </c>
       <c r="H794">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="795" spans="1:8">
@@ -21088,7 +21088,7 @@
         <v>83295785.33142683</v>
       </c>
       <c r="H796">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>87890739.76352683</v>
       </c>
       <c r="H797">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -21140,7 +21140,7 @@
         <v>88164813.18772683</v>
       </c>
       <c r="H798">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="799" spans="1:8">
@@ -21166,7 +21166,7 @@
         <v>89413297.57242683</v>
       </c>
       <c r="H799">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="800" spans="1:8">
@@ -21192,7 +21192,7 @@
         <v>94428179.98272683</v>
       </c>
       <c r="H800">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="801" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>97677607.85409655</v>
       </c>
       <c r="H801">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>97677607.85409655</v>
       </c>
       <c r="H802">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>96210601.90709655</v>
       </c>
       <c r="H803">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>91518425.52595359</v>
       </c>
       <c r="H804">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="805" spans="1:8">
@@ -21322,7 +21322,7 @@
         <v>91518425.52595359</v>
       </c>
       <c r="H805">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="806" spans="1:8">
@@ -21348,7 +21348,7 @@
         <v>89980141.03175358</v>
       </c>
       <c r="H806">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="807" spans="1:8">
@@ -21374,7 +21374,7 @@
         <v>89980141.03175358</v>
       </c>
       <c r="H807">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="808" spans="1:8">
@@ -21400,7 +21400,7 @@
         <v>89980141.03175358</v>
       </c>
       <c r="H808">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="809" spans="1:8">
@@ -21426,7 +21426,7 @@
         <v>89980141.03175358</v>
       </c>
       <c r="H809">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="810" spans="1:8">
@@ -21452,7 +21452,7 @@
         <v>89980141.03175358</v>
       </c>
       <c r="H810">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="811" spans="1:8">
@@ -21478,7 +21478,7 @@
         <v>90417378.51218908</v>
       </c>
       <c r="H811">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="812" spans="1:8">
@@ -21504,7 +21504,7 @@
         <v>89884599.03210476</v>
       </c>
       <c r="H812">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="813" spans="1:8">
@@ -21530,7 +21530,7 @@
         <v>89884599.03210476</v>
       </c>
       <c r="H813">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="814" spans="1:8">
@@ -21556,7 +21556,7 @@
         <v>88732356.73030476</v>
       </c>
       <c r="H814">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="815" spans="1:8">
@@ -21582,7 +21582,7 @@
         <v>85689781.54894525</v>
       </c>
       <c r="H815">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="816" spans="1:8">
@@ -21608,7 +21608,7 @@
         <v>87955214.81824525</v>
       </c>
       <c r="H816">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="817" spans="1:8">
@@ -21634,7 +21634,7 @@
         <v>88736664.00904524</v>
       </c>
       <c r="H817">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="818" spans="1:8">
@@ -21660,7 +21660,7 @@
         <v>88271960.4321432</v>
       </c>
       <c r="H818">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="819" spans="1:8">
@@ -21686,7 +21686,7 @@
         <v>88271960.4321432</v>
       </c>
       <c r="H819">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="820" spans="1:8">
@@ -21712,7 +21712,7 @@
         <v>89852768.11714116</v>
       </c>
       <c r="H820">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="821" spans="1:8">
@@ -21738,7 +21738,7 @@
         <v>89402623.63174115</v>
       </c>
       <c r="H821">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="822" spans="1:8">
@@ -21764,7 +21764,7 @@
         <v>89402623.63174115</v>
       </c>
       <c r="H822">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="823" spans="1:8">
@@ -21790,7 +21790,7 @@
         <v>89661896.90514114</v>
       </c>
       <c r="H823">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="824" spans="1:8">
@@ -21816,7 +21816,7 @@
         <v>89548875.84824115</v>
       </c>
       <c r="H824">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="825" spans="1:8">
@@ -21842,7 +21842,7 @@
         <v>89919441.50954115</v>
       </c>
       <c r="H825">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="826" spans="1:8">
@@ -21868,7 +21868,7 @@
         <v>89660962.66184115</v>
       </c>
       <c r="H826">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="827" spans="1:8">
@@ -21894,7 +21894,7 @@
         <v>87584146.02582164</v>
       </c>
       <c r="H827">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="828" spans="1:8">
@@ -21920,7 +21920,7 @@
         <v>87584146.02582164</v>
       </c>
       <c r="H828">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="829" spans="1:8">
@@ -21946,7 +21946,7 @@
         <v>87927617.35382164</v>
       </c>
       <c r="H829">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="830" spans="1:8">
@@ -21972,7 +21972,7 @@
         <v>87927617.35382164</v>
       </c>
       <c r="H830">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="831" spans="1:8">
@@ -21998,7 +21998,7 @@
         <v>87126446.08562164</v>
       </c>
       <c r="H831">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="832" spans="1:8">
@@ -22024,7 +22024,7 @@
         <v>87126446.08562164</v>
       </c>
       <c r="H832">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="833" spans="1:8">
@@ -22050,7 +22050,7 @@
         <v>87126446.08562164</v>
       </c>
       <c r="H833">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="834" spans="1:8">
@@ -22076,7 +22076,7 @@
         <v>87354900.99093184</v>
       </c>
       <c r="H834">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="835" spans="1:8">
@@ -22102,7 +22102,7 @@
         <v>87354900.99093184</v>
       </c>
       <c r="H835">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="836" spans="1:8">
@@ -22128,7 +22128,7 @@
         <v>87831616.54053184</v>
       </c>
       <c r="H836">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="837" spans="1:8">
@@ -22154,7 +22154,7 @@
         <v>87253223.73733184</v>
       </c>
       <c r="H837">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="838" spans="1:8">
@@ -22180,7 +22180,7 @@
         <v>87253223.73733184</v>
       </c>
       <c r="H838">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="839" spans="1:8">
@@ -22206,7 +22206,7 @@
         <v>87253223.73733184</v>
       </c>
       <c r="H839">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="840" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>85808920.12753184</v>
       </c>
       <c r="H840">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="841" spans="1:8">
@@ -22258,7 +22258,7 @@
         <v>85808920.12753184</v>
       </c>
       <c r="H841">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="842" spans="1:8">
@@ -22284,7 +22284,7 @@
         <v>85614123.52473184</v>
       </c>
       <c r="H842">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="843" spans="1:8">
@@ -22388,7 +22388,7 @@
         <v>85506986.22423185</v>
       </c>
       <c r="H846">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="847" spans="1:8">
@@ -22492,7 +22492,7 @@
         <v>86649341.97063185</v>
       </c>
       <c r="H850">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="851" spans="1:8">
@@ -22518,7 +22518,7 @@
         <v>85796672.23873185</v>
       </c>
       <c r="H851">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="852" spans="1:8">
@@ -22544,7 +22544,7 @@
         <v>85175614.37943184</v>
       </c>
       <c r="H852">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="853" spans="1:8">
@@ -27666,7 +27666,7 @@
         <v>86418363.10692564</v>
       </c>
       <c r="H1049">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1050" spans="1:8">
